--- a/Statics_file/USA CC APPROACH.xlsx
+++ b/Statics_file/USA CC APPROACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GKGQW\OneDrive - Bayer\Desktop\Digital\Smart Automation\CAR LEASING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup.sharepoint.com/sites/CARLEASINGREPORT/Shared Documents/General/2023/Statics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC0C3A-863A-4705-B5AE-A7C8F5454264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2ECC0C3A-863A-4705-B5AE-A7C8F5454264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9AB5BE-D255-4DA8-BA46-793F9AA9036F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32160" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Ccode</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>Bayer U.S.</t>
+  </si>
+  <si>
+    <t>1372</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,20 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" thickBot="1">
+    <row r="2" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -616,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
+    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -627,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" thickBot="1">
+    <row r="4" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -638,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" thickBot="1">
+    <row r="5" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -649,7 +652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" thickBot="1">
+    <row r="6" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -660,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" thickBot="1">
+    <row r="7" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -671,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" thickBot="1">
+    <row r="8" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -682,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" thickBot="1">
+    <row r="9" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" thickBot="1">
+    <row r="10" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -704,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" thickBot="1">
+    <row r="11" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -715,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" thickBot="1">
+    <row r="12" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -726,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1">
+    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
@@ -734,6 +737,17 @@
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -747,15 +761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007C34DE1732926A4D95A569DB0EDEC283" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9155ec5179162c1fbd6ab1d79c575750">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d094e32b-6fbd-4ea3-bbe3-1b51c610f25c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e96fdb132dbdf0c652a92cef6be8f24" ns2:_="">
     <xsd:import namespace="d094e32b-6fbd-4ea3-bbe3-1b51c610f25c"/>
@@ -887,6 +892,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -894,13 +908,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E421BB-5C6D-46BB-9BFE-F4C5035E9A5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8A9A45-8225-4C18-937A-F57A886F7541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d094e32b-6fbd-4ea3-bbe3-1b51c610f25c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8A9A45-8225-4C18-937A-F57A886F7541}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E421BB-5C6D-46BB-9BFE-F4C5035E9A5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61FC81E2-2B17-416F-A0C1-DED8A28DB2FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61FC81E2-2B17-416F-A0C1-DED8A28DB2FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>